--- a/biology/Virologie/Medusavirus/Medusavirus.xlsx
+++ b/biology/Virologie/Medusavirus/Medusavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Medusavirus est un virus géant décrit en 2019[1]. 
+Medusavirus est un virus géant décrit en 2019. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une enveloppe géométrique polyhédrique,  garnie de 2 660 pointes à tête sphérique, protège son génome[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une enveloppe géométrique polyhédrique,  garnie de 2 660 pointes à tête sphérique, protège son génome.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut transformer les amibes en kystes ressemblant à des pierres secoue l’arbre de la famille du virus. Les scientifiques l'ont appelé le medusavirus[1].
-Il a récemment été découvert et isolé au Japon par Masaharu Takemura et son équipe de l'Université des sciences de Tokyo et Hiroyuki Ogata (Université de Kyoto au Japon), à partir d'un échantillon de sédiment et de feuilles mortes provenant d'une source thermale japonaise[2]. C'est le premier virus découvert dans un environnement chaud  (43,4 °C).
-Une fois expérimentalement mis en contact avec des amibes Acanthamoeba castellanii, il les a infectées et s'y est multiplié, provoquant leur éclatement, ou provoquant en réaction la constitution d'une  coquille dure, ce pourquoi il a été nommé Medusa (en référence à Méduse, qui dans la mythologie grecque transformait les humains qui la regardaient en pierre[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut transformer les amibes en kystes ressemblant à des pierres secoue l’arbre de la famille du virus. Les scientifiques l'ont appelé le medusavirus.
+Il a récemment été découvert et isolé au Japon par Masaharu Takemura et son équipe de l'Université des sciences de Tokyo et Hiroyuki Ogata (Université de Kyoto au Japon), à partir d'un échantillon de sédiment et de feuilles mortes provenant d'une source thermale japonaise. C'est le premier virus découvert dans un environnement chaud  (43,4 °C).
+Une fois expérimentalement mis en contact avec des amibes Acanthamoeba castellanii, il les a infectées et s'y est multiplié, provoquant leur éclatement, ou provoquant en réaction la constitution d'une  coquille dure, ce pourquoi il a été nommé Medusa (en référence à Méduse, qui dans la mythologie grecque transformait les humains qui la regardaient en pierre.
 </t>
         </is>
       </c>
